--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2030796.389035095</v>
+        <v>2145619.992490003</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916863</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5457725.353156144</v>
+        <v>5755674.487632299</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34.15115931135752</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>380.5877133914329</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,13 +670,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>152.355512532834</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>255.3407069301742</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -880,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -908,13 +910,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>289.1502351296659</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>351.0299277663651</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1060,10 +1062,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>121.5488393606651</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>55.26522771132768</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>206.9646911802579</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>68.53737268940668</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>104.7722910108948</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1357,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>198.8096778684291</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1372,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>277.372645804982</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1430,13 +1432,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430772</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>154.7429394224604</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1540,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170502</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1613,10 +1615,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>163.0579649487167</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1625,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1660,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>73.01514676193521</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2002,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2014,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>35.47248331510065</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>78.37744390510585</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2479,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2488,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.77283765622091</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>157.8824880649885</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2810,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>46.16917954999322</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3247,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3275,16 +3277,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314539</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="36">
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3670,7 +3672,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>148.6041873872574</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3712,7 +3714,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>99.2861660332424</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3724,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>49.87192555864497</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>407.7347469545526</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1642.524479975104</v>
+        <v>503.8064494671689</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.942805712373</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>1182.073424927221</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>1152.33908412592</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4331,19 +4333,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1353.494203032709</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1338.392143652423</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>930.1060199520767</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4409,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>60.00734176206595</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>60.00734176206595</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0602407069692</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>480.0602407069692</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.8381257054811</v>
+        <v>461.0433221421854</v>
       </c>
       <c r="C4" t="n">
-        <v>187.8381257054811</v>
+        <v>288.4816106254103</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4489,16 +4491,16 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>341.3779633559367</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>341.3779633559367</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>761.43086230084</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4510,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1439.263524090342</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1152.308015960773</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>880.2816115470644</v>
       </c>
       <c r="X4" t="n">
-        <v>187.8381257054811</v>
+        <v>880.2816115470644</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.8381257054811</v>
+        <v>652.8619408611726</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>975.8202272924902</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>537.6777544759136</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>505.8083736907622</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>476.0740328894614</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>452.2470073390732</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233708</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233708</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>1733.888642131953</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="U5" t="n">
-        <v>1354.309253581271</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="V5" t="n">
-        <v>1354.309253581271</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="W5" t="n">
-        <v>949.4537989923044</v>
+        <v>2229.548384898434</v>
       </c>
       <c r="X5" t="n">
-        <v>530.3113355716151</v>
+        <v>1810.405921477745</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>1402.119797777398</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>739.9048540962709</v>
+        <v>972.3985859291674</v>
       </c>
       <c r="L6" t="n">
-        <v>739.9048540962709</v>
+        <v>972.3985859291674</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>760.5269815952424</v>
+        <v>614.4535569886666</v>
       </c>
       <c r="C7" t="n">
-        <v>587.9652700784674</v>
+        <v>441.8918454718915</v>
       </c>
       <c r="D7" t="n">
-        <v>422.0872772799901</v>
+        <v>276.0138526734142</v>
       </c>
       <c r="E7" t="n">
-        <v>299.3106718651768</v>
+        <v>106.2558489241515</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>271.0586252774393</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>689.2685070454004</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1109.321405990304</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609522</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2362.377960771851</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2116.498514350306</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1838.065513603411</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1551.110005473842</v>
       </c>
       <c r="W7" t="n">
-        <v>1425.157025666709</v>
+        <v>1279.083601060133</v>
       </c>
       <c r="X7" t="n">
-        <v>1179.765271000121</v>
+        <v>1033.691846393546</v>
       </c>
       <c r="Y7" t="n">
-        <v>952.3456003142296</v>
+        <v>806.2721757076538</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1395.53913136414</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="C8" t="n">
-        <v>1361.437062587967</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D8" t="n">
-        <v>1292.207393204728</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E8" t="n">
-        <v>863.6257189419966</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F8" t="n">
-        <v>435.7582893512044</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1437.961127397434</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>1437.146076848872</v>
+        <v>2306.628825816691</v>
       </c>
       <c r="X8" t="n">
-        <v>1422.044017468586</v>
+        <v>2291.526766436406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1417.798297808644</v>
+        <v>2287.281046776464</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>376.2633838676462</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C10" t="n">
-        <v>203.7016723508711</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>203.7016723508711</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>726.9120049407049</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1591.352833099716</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1312.919832352821</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1312.919832352821</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1040.893427939113</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>795.5016732725251</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>568.0820025866333</v>
+        <v>959.897665623735</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1222.738694693852</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>784.5962218772752</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>504.4218321752731</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>504.4218321752731</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>76.55440258448085</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>76.55440258448085</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2262.917935035995</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>2262.917935035995</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N11" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>2881.322306888762</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2476.466852299795</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2057.324388879106</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1649.03826517876</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>76.13761321162086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>400.6959381778332</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K12" t="n">
-        <v>400.6959381778332</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L12" t="n">
-        <v>1198.638436058354</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.638436058354</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N12" t="n">
-        <v>1198.638436058354</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O12" t="n">
-        <v>1198.638436058354</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P12" t="n">
-        <v>1198.638436058354</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>785.6314506292333</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C13" t="n">
-        <v>613.0697391124583</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D13" t="n">
-        <v>447.191746313981</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>277.4337425647182</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>100.7266885264744</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>76.13761321162086</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955475</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.55153211312</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338901</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309243</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="S13" t="n">
-        <v>2533.555854412417</v>
+        <v>2559.679081471572</v>
       </c>
       <c r="T13" t="n">
-        <v>2287.676407990873</v>
+        <v>2313.799635050028</v>
       </c>
       <c r="U13" t="n">
-        <v>2009.243407243978</v>
+        <v>2035.366634303133</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.287899114408</v>
+        <v>1748.411126173563</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.2614947007</v>
+        <v>1476.384721759855</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.869740034112</v>
+        <v>1476.384721759855</v>
       </c>
       <c r="Y13" t="n">
-        <v>977.4500693482205</v>
+        <v>1248.965051073963</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1805.422871886987</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1367.28039907041</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>931.3706142448546</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>766.6655991451407</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L14" t="n">
-        <v>2287.945556116525</v>
+        <v>1286.300469346935</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.071999789052</v>
+        <v>2443.348304557486</v>
       </c>
       <c r="N14" t="n">
-        <v>2432.071999789052</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O14" t="n">
-        <v>2432.071999789052</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>3260.381874622449</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3806.880660581043</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3723.22878676488</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3464.006484081897</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3464.006484081897</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3059.15102949293</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2640.008566072241</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2231.722442371894</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L15" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M15" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N15" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O15" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.4549980366087</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>750.8932865198336</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>585.0152937213563</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E16" t="n">
-        <v>415.2572899720936</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F16" t="n">
-        <v>238.5502359338498</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G16" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.379401819793</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.499955398248</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2147.066954651353</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1860.111446521784</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1588.085042108075</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1342.693287441488</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1115.273616755596</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5522,7 +5524,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5549,16 +5551,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>624.4588635952861</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>454.7008598460233</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>277.9938058077795</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>277.9938058077795</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>138.091631498154</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1224.761663117513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1224.761663117513</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N21" t="n">
-        <v>1224.761663117513</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O21" t="n">
-        <v>1224.761663117513</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1004.611946844417</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>832.0502353276421</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1669.241990915884</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1423.850236249296</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1196.430565563404</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5987,22 +5989,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>3417.209496257023</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
@@ -6063,25 +6065,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.781058858859</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>754.2193473420839</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2674.705462642043</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2428.826016220498</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2150.393015473603</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1863.437507344034</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1591.411102930325</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1346.019348263738</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1118.599677577846</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,49 +6466,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688178</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6698,22 +6700,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>3572.656769371182</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>4552.836435941488</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1062.363260807472</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>889.8015492906967</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>723.9235564922194</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>554.1655527429566</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>377.4584987047128</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1726.993304878938</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1481.601550212351</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1254.181879526459</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6916,22 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,7 +6946,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423628</v>
@@ -6980,7 +6982,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7019,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>270.2186143064091</v>
       </c>
       <c r="L36" t="n">
-        <v>1056.803889081883</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M36" t="n">
-        <v>1056.803889081883</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N36" t="n">
-        <v>1056.803889081883</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q36" t="n">
         <v>1765.500601749588</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7168,7 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,28 +7177,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>936.6111322289576</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M38" t="n">
-        <v>2093.658967439508</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N38" t="n">
-        <v>3219.389950875955</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O38" t="n">
-        <v>4199.569617446262</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P38" t="n">
-        <v>5027.879492279658</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7254,22 +7256,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>1224.761663117513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>1224.761663117513</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N39" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O39" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
         <v>1765.500601749588</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>982.1554751127505</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>982.1554751127505</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>816.2774823142732</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>646.5194785650106</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
         <v>496.4142387799021</v>
@@ -7360,22 +7362,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2437.972203577713</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2159.539202830818</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1872.583694701248</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2502.77682059263</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2064.634347776053</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1628.724562950498</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H41" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1345.742592622717</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1345.742592622717</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3806.880660581043</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3756.504978198574</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3337.362514777884</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2929.076391077538</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.6336502885522</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>754.0719387717771</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>588.1939459732998</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>418.435942224037</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>241.7288881857932</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2674.558054071736</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2428.678607650191</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2150.245606903296</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1863.290098773727</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1591.263694360019</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1345.871939693431</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1118.452269007539</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1237.184985426686</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>799.0425126101095</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>799.0425126101095</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>365.2677677684046</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>365.2677677684046</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>76.13761321162086</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>378.5120080483794</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1320.714971542188</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M44" t="n">
-        <v>1320.714971542188</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N44" t="n">
-        <v>2262.917935035995</v>
+        <v>3654.644638328873</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035995</v>
+        <v>3654.644638328873</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869392</v>
+        <v>4482.954513162269</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827986</v>
+        <v>5029.453299120864</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>2881.322306888762</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>2476.466852299795</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2057.324388879106</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>1649.03826517876</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1368.962574832099</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1368.962574832099</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1368.962574832099</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.6336502885522</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>754.0719387717771</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>588.1939459732998</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>418.435942224037</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>241.7288881857932</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2674.558054071736</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2428.678607650191</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2150.245606903296</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1863.290098773727</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1591.263694360019</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1345.871939693431</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1118.452269007539</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8055,25 +8057,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8137,19 +8139,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>223.0854642319581</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,13 +8297,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>577.1153547606267</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8376,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>152.0558298092334</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>204.0749767191105</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8541,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,10 +8619,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>35.25505765581499</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8693,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>926.4397398113929</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>806.0025231116375</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>825.7100220597506</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8927,16 +8929,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>951.720165145261</v>
+        <v>756.3484258820585</v>
       </c>
       <c r="M14" t="n">
-        <v>145.5822663358858</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9170,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>1093.778640932155</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -9720,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10364,7 +10366,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>565.8642197954468</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10422,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10434,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>169.6543172077065</v>
       </c>
       <c r="L36" t="n">
         <v>964.1848977889938</v>
@@ -10677,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10823,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10838,13 +10840,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q38" t="n">
-        <v>86.02274874679097</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-5.871232860595138e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,16 +10904,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -11063,16 +11065,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>305.4286816532915</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>84.43304486678426</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>255.8000219838295</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23261,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>154.1780411723179</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>35.1574931093368</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>266.3790324445711</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>90.92021546249539</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>52.30086641797077</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>190.9286964644655</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>113.8761173587624</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>111.4236523045828</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>117.7661826744374</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>26.33579611060398</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>144.1344859240869</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>350.934974484432</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.30182782550605</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>480253.8082882519</v>
+        <v>488708.6899037688</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>480253.8082882519</v>
+        <v>490231.0099343858</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>405551.1097139135</v>
+        <v>501584.4392355895</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>405551.1097139135</v>
+        <v>501584.4392355896</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>501584.4392355895</v>
+        <v>501584.4392355896</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>501584.4392355897</v>
+        <v>501584.4392355896</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>405551.1097139136</v>
+        <v>501584.4392355896</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>405551.1097139135</v>
+        <v>501584.4392355896</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>482532.5879013676</v>
+      </c>
+      <c r="C2" t="n">
         <v>482532.5879013677</v>
-      </c>
-      <c r="C2" t="n">
-        <v>482532.5879013676</v>
       </c>
       <c r="D2" t="n">
         <v>482532.5879013677</v>
       </c>
       <c r="E2" t="n">
-        <v>383386.9136976224</v>
+        <v>474171.8257236169</v>
       </c>
       <c r="F2" t="n">
-        <v>383386.9136976224</v>
+        <v>474171.825723617</v>
       </c>
       <c r="G2" t="n">
         <v>474171.825723617</v>
@@ -26332,7 +26334,7 @@
         <v>474171.825723617</v>
       </c>
       <c r="I2" t="n">
-        <v>474171.8257236171</v>
+        <v>474171.825723617</v>
       </c>
       <c r="J2" t="n">
         <v>474171.825723617</v>
@@ -26344,16 +26346,16 @@
         <v>474171.825723617</v>
       </c>
       <c r="M2" t="n">
+        <v>474171.825723617</v>
+      </c>
+      <c r="N2" t="n">
         <v>474171.8257236169</v>
       </c>
-      <c r="N2" t="n">
-        <v>474171.825723617</v>
-      </c>
       <c r="O2" t="n">
-        <v>383386.9136976224</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="P2" t="n">
-        <v>383386.9136976224</v>
+        <v>474171.8257236171</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501614</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.5955499828</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.291160447619843e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,16 +26392,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877249</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622336</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.505232968297386e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>193696.6796511645</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>154981.0317940155</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>44115.42103448478</v>
+        <v>54561.8251096227</v>
       </c>
       <c r="F4" t="n">
-        <v>44115.42103448478</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962272</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962272</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="J4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="K4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="K4" t="n">
-        <v>54561.82510962271</v>
-      </c>
       <c r="L4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962269</v>
       </c>
       <c r="N4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
-        <v>44115.42103448479</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="P4" t="n">
-        <v>44115.42103448478</v>
+        <v>54561.82510962276</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87219.81945327093</v>
+        <v>87219.81945327081</v>
       </c>
       <c r="C6" t="n">
-        <v>229411.1201129808</v>
+        <v>189007.5744043335</v>
       </c>
       <c r="D6" t="n">
-        <v>229411.1201129809</v>
+        <v>248782.2735438381</v>
       </c>
       <c r="E6" t="n">
-        <v>123929.6117002018</v>
+        <v>159536.652787152</v>
       </c>
       <c r="F6" t="n">
-        <v>281406.9066223057</v>
+        <v>341891.7620082018</v>
       </c>
       <c r="G6" t="n">
-        <v>252391.9534018326</v>
+        <v>341891.7620082017</v>
       </c>
       <c r="H6" t="n">
         <v>341891.7620082018</v>
       </c>
       <c r="I6" t="n">
-        <v>341891.7620082019</v>
+        <v>341891.7620082018</v>
       </c>
       <c r="J6" t="n">
         <v>230877.2966632115</v>
       </c>
       <c r="K6" t="n">
+        <v>288845.9073694292</v>
+      </c>
+      <c r="L6" t="n">
+        <v>332499.4602815795</v>
+      </c>
+      <c r="M6" t="n">
+        <v>189691.5910702142</v>
+      </c>
+      <c r="N6" t="n">
+        <v>341891.7620082016</v>
+      </c>
+      <c r="O6" t="n">
         <v>341891.7620082018</v>
       </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>341891.7620082018</v>
-      </c>
-      <c r="M6" t="n">
-        <v>210455.5148507821</v>
-      </c>
-      <c r="N6" t="n">
-        <v>341891.7620082017</v>
-      </c>
-      <c r="O6" t="n">
-        <v>281406.9066223057</v>
-      </c>
-      <c r="P6" t="n">
-        <v>281406.9066223057</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.113950559524804e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26941,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939348</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939348</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.113950559524804e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939348</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>387.8854154687012</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>53.17333469697797</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,13 +27390,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>11.86370033765851</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27555,7 +27557,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>20.30796380925148</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>111.6566649134111</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>53.17333469697797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>46.51158435110497</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>119.6747557865337</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -27792,7 +27794,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27824,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>215.0718835998008</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>363.0133142878932</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27909,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>138.6483609464345</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>26.3357961106037</v>
       </c>
     </row>
     <row r="11">
@@ -28278,7 +28280,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-3.735895724742149e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28621,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28819,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-8.287078162179479e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29530,7 +29532,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-8.286523050667166e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29992,19 +29994,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30052,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-1.294122510303012e-12</v>
       </c>
     </row>
     <row r="36">
@@ -34699,7 +34701,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34775,25 +34777,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34857,19 +34859,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>223.0854642319581</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,13 +35017,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>577.1153547606267</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>152.0558298092334</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>204.0749767191105</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35339,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>35.25505765581499</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,19 +35412,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>926.4397398113929</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>806.0025231116375</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>825.7100220597506</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,7 +35576,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645547</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>951.720165145261</v>
+        <v>756.3484258820585</v>
       </c>
       <c r="M14" t="n">
-        <v>145.5822663358858</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>1093.778640932155</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36440,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36452,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37084,7 +37086,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>565.8642197954468</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>169.6543172077065</v>
       </c>
       <c r="L36" t="n">
         <v>964.1848977889938</v>
@@ -37397,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37555,16 +37557,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q38" t="n">
-        <v>86.02274874679097</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-2.647518703460994e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>305.4286816532915</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -38035,10 +38037,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157532</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>84.43304486678426</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,7 +38107,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>255.8000219838295</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2145619.992490003</v>
+        <v>2145094.81012097</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5755674.487632299</v>
+        <v>5755674.487632298</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>380.5877133914329</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>8.96502788335618</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>255.3407069301742</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -882,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>35.0560030479866</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>319.9008577170937</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>289.1502351296659</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1065,7 +1065,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>55.26522771132768</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>84.26707511081125</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>206.9646911802579</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1147,10 +1147,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>33.58079695703562</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1308,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>152.5004364948338</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>198.8096778684291</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791323674</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1429,10 +1429,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430772</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864825</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>154.7429394224604</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556936</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.3431845617044</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>131.9969996527425</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1846,25 +1846,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800322</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1903,16 +1903,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>35.47248331510065</v>
+        <v>28.46824604904389</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2083,25 +2083,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2140,16 +2140,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="21">
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3.139541480022559</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>120.1838601509832</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170124</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2769,13 +2769,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>157.8824880649885</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>16.9257490316895</v>
       </c>
     </row>
     <row r="32">
@@ -3277,16 +3277,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791314539</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.05677735225751</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3511,7 +3511,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932882</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>23.49600688719859</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>99.2861660332424</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3726,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3805,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>136.0564930766999</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501925253</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4188,7 +4188,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>503.8064494671689</v>
+        <v>1245.9111659461</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1211.809097169927</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>1179.939716384776</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4333,16 +4333,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>874.0494664914149</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1354.309253581271</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1354.309253581271</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1353.494203032709</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1338.392143652423</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>930.1060199520767</v>
+        <v>1672.210736431008</v>
       </c>
     </row>
     <row r="3">
@@ -4415,16 +4415,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.0433221421854</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="C4" t="n">
-        <v>288.4816106254103</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="D4" t="n">
-        <v>122.603617826933</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="E4" t="n">
-        <v>122.603617826933</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>341.3779633559367</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>341.3779633559367</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>761.43086230084</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4515,25 +4515,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1439.263524090342</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1152.308015960773</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W4" t="n">
-        <v>880.2816115470644</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X4" t="n">
-        <v>880.2816115470644</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="Y4" t="n">
-        <v>652.8619408611726</v>
+        <v>173.8458429112338</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>975.8202272924902</v>
+        <v>1267.076121319341</v>
       </c>
       <c r="C5" t="n">
-        <v>537.6777544759136</v>
+        <v>943.9439418071255</v>
       </c>
       <c r="D5" t="n">
-        <v>505.8083736907622</v>
+        <v>508.03415698157</v>
       </c>
       <c r="E5" t="n">
-        <v>476.0740328894614</v>
+        <v>74.25941213986516</v>
       </c>
       <c r="F5" t="n">
-        <v>452.2470073390732</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="G5" t="n">
-        <v>50.84917596233708</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233708</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="J5" t="n">
-        <v>485.687074042395</v>
+        <v>102.8181913809214</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087174</v>
+        <v>726.9189754256987</v>
       </c>
       <c r="L5" t="n">
-        <v>1733.888642131953</v>
+        <v>726.9189754256987</v>
       </c>
       <c r="M5" t="n">
-        <v>1805.966478762203</v>
+        <v>726.9189754256987</v>
       </c>
       <c r="N5" t="n">
-        <v>1805.966478762203</v>
+        <v>726.9189754256987</v>
       </c>
       <c r="O5" t="n">
-        <v>1805.966478762203</v>
+        <v>1351.019759470476</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762203</v>
+        <v>1975.120543515253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720797</v>
+        <v>2521.619329473848</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.619329473848</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.619329473848</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.619329473848</v>
       </c>
       <c r="U5" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.619329473848</v>
       </c>
       <c r="V5" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.619329473848</v>
       </c>
       <c r="W5" t="n">
-        <v>2229.548384898434</v>
+        <v>2520.804278925285</v>
       </c>
       <c r="X5" t="n">
-        <v>1810.405921477745</v>
+        <v>2101.661815504596</v>
       </c>
       <c r="Y5" t="n">
-        <v>1402.119797777398</v>
+        <v>1693.375691804249</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807698</v>
+        <v>556.6041315807697</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174121</v>
+        <v>450.147670417412</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639654</v>
+        <v>355.0573815639653</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909191</v>
+        <v>260.936966890919</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070807</v>
+        <v>177.5531285070806</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326461</v>
+        <v>92.16803877326448</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993469</v>
+        <v>76.49605974993456</v>
       </c>
       <c r="J6" t="n">
-        <v>401.054384716147</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="K6" t="n">
-        <v>972.3985859291674</v>
+        <v>1025.155168760924</v>
       </c>
       <c r="L6" t="n">
-        <v>972.3985859291674</v>
+        <v>1025.155168760924</v>
       </c>
       <c r="M6" t="n">
-        <v>1596.499369973946</v>
+        <v>1025.155168760924</v>
       </c>
       <c r="N6" t="n">
-        <v>1596.499369973946</v>
+        <v>1025.155168760924</v>
       </c>
       <c r="O6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4688,10 +4688,10 @@
         <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813122</v>
+        <v>804.3938118813121</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.908032660533</v>
+        <v>677.9080326605329</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>614.4535569886666</v>
+        <v>735.3371486922358</v>
       </c>
       <c r="C7" t="n">
-        <v>441.8918454718915</v>
+        <v>562.7754371754608</v>
       </c>
       <c r="D7" t="n">
-        <v>276.0138526734142</v>
+        <v>396.8974443769835</v>
       </c>
       <c r="E7" t="n">
-        <v>106.2558489241515</v>
+        <v>227.1394406277207</v>
       </c>
       <c r="F7" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="G7" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="H7" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>325.1908411606125</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>743.4007229285736</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2151.392327657602</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609522</v>
+        <v>2353.426554609516</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.619329473848</v>
       </c>
       <c r="R7" t="n">
-        <v>2521.619329473854</v>
+        <v>2500.20150817922</v>
       </c>
       <c r="S7" t="n">
-        <v>2362.377960771851</v>
+        <v>2340.960139477216</v>
       </c>
       <c r="T7" t="n">
-        <v>2116.498514350306</v>
+        <v>2095.080693055671</v>
       </c>
       <c r="U7" t="n">
-        <v>1838.065513603411</v>
+        <v>1816.647692308777</v>
       </c>
       <c r="V7" t="n">
-        <v>1551.110005473842</v>
+        <v>1529.692184179207</v>
       </c>
       <c r="W7" t="n">
-        <v>1279.083601060133</v>
+        <v>1257.665779765499</v>
       </c>
       <c r="X7" t="n">
-        <v>1033.691846393546</v>
+        <v>1012.274025098911</v>
       </c>
       <c r="Y7" t="n">
-        <v>806.2721757076538</v>
+        <v>927.155767411223</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2078.225803160042</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C8" t="n">
-        <v>1640.083330343465</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>1204.173545517909</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>770.3988006762045</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>342.5313710854123</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
         <v>53.40121652862856</v>
@@ -4804,28 +4804,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>2035.921380153963</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2035.921380153963</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2582.420166112558</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4840,16 +4840,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2306.628825816691</v>
+        <v>2636.140829505129</v>
       </c>
       <c r="X8" t="n">
-        <v>2291.526766436406</v>
+        <v>2216.99836608444</v>
       </c>
       <c r="Y8" t="n">
-        <v>2287.281046776464</v>
+        <v>2212.752646424497</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>959.897665623735</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y10" t="n">
-        <v>959.897665623735</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771603</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436406</v>
       </c>
       <c r="I11" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M11" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P11" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
         <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H13" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I13" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
         <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1341.292728955475</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1783.55153211312</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2203.220781338901</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309243</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2718.920450173576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2718.920450173576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2559.679081471572</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2313.799635050028</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2035.366634303133</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1748.411126173563</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1476.384721759855</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1476.384721759855</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1248.965051073963</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5266,46 +5266,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>1286.300469346935</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>2443.348304557486</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N14" t="n">
-        <v>3569.079287993933</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
         <v>4809.322912595856</v>
@@ -5323,7 +5323,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5348,10 +5348,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
         <v>128.3245134312372</v>
@@ -5360,22 +5360,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5451,37 +5451,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309242</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878947</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176943</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5503,64 +5503,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>790.3368563937634</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>624.4588635952861</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>454.7008598460233</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="F19" t="n">
-        <v>277.9938058077795</v>
+        <v>296.6079193348953</v>
       </c>
       <c r="G19" t="n">
-        <v>277.9938058077795</v>
+        <v>131.016644360723</v>
       </c>
       <c r="H19" t="n">
-        <v>138.091631498154</v>
+        <v>131.016644360723</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5728,55 +5728,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722818</v>
@@ -5797,7 +5797,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J22" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L22" t="n">
         <v>881.8088617745661</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5995,10 +5995,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6065,13 +6065,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
         <v>1107.588885023173</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856325</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883883</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716132</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731359</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238732</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856294</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6390,46 +6390,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745624</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955475</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.55153211312</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338901</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309243</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471572</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050028</v>
       </c>
       <c r="U28" t="n">
-        <v>2292.381813755403</v>
+        <v>2035.366634303133</v>
       </c>
       <c r="V28" t="n">
-        <v>2005.426305625833</v>
+        <v>1748.411126173563</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759855</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.992967093267</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407375</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6982,7 +6982,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>270.2186143064091</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7162,64 +7162,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
+        <v>4397.38916282733</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4943.887948785925</v>
+      </c>
+      <c r="R38" t="n">
         <v>5113.042013538981</v>
       </c>
-      <c r="Q38" t="n">
-        <v>5113.042013538981</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5113.04201353898</v>
-      </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>866.6126368575082</v>
       </c>
       <c r="D40" t="n">
         <v>842.8792965674086</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2437.972203577713</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2159.539202830818</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1872.583694701248</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1600.55729028754</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7453,10 +7453,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354734</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>463.598980006609</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>881.80886177457</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.62318245741</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710515</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7654,22 +7654,22 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2528.913654892426</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>3654.644638328873</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.644638328873</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4482.954513162269</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5029.453299120864</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
         <v>5113.042013538981</v>
@@ -7693,7 +7693,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E46" t="n">
         <v>444.5591692831957</v>
@@ -7836,22 +7836,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>236.2898988798406</v>
@@ -8063,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>223.0854642319581</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>52.91495433479234</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684619</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684635</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>72.80589558611109</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684619</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684619</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,25 +8297,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>577.1153547606267</v>
+        <v>630.4048323684619</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>630.4048323684635</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664742072</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8391,7 +8391,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191105</v>
+        <v>291.5292041581847</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>88.52591951401018</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>92.22506899525706</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8768,7 +8768,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>825.7100220597506</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,22 +8929,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>756.3484258820585</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828739</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9643,13 +9643,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>169.6543172077065</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>-5.871232860595138e-13</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11302,16 +11302,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>84.43304486678426</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.1574931093368</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>111.4236523045868</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>52.30086641797077</v>
+        <v>59.30510368402752</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>135.3636110865067</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627294</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>111.4236523045828</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
     </row>
     <row r="32">
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>3.146865729424327</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>140.7232059832939</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>144.1344859240869</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>229.4233680290213</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>488708.6899037688</v>
+        <v>488708.6899037687</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>501584.4392355895</v>
+        <v>501584.4392355896</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>501584.4392355896</v>
+        <v>501584.4392355897</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>501584.4392355896</v>
+        <v>501584.4392355895</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>501584.4392355896</v>
+        <v>501584.4392355897</v>
       </c>
     </row>
     <row r="16">
@@ -26316,19 +26316,19 @@
         <v>482532.5879013676</v>
       </c>
       <c r="C2" t="n">
-        <v>482532.5879013677</v>
+        <v>482532.5879013675</v>
       </c>
       <c r="D2" t="n">
-        <v>482532.5879013677</v>
+        <v>482532.5879013676</v>
       </c>
       <c r="E2" t="n">
         <v>474171.8257236169</v>
       </c>
       <c r="F2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="G2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="H2" t="n">
         <v>474171.825723617</v>
@@ -26340,7 +26340,7 @@
         <v>474171.825723617</v>
       </c>
       <c r="K2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="L2" t="n">
         <v>474171.825723617</v>
@@ -26349,13 +26349,13 @@
         <v>474171.825723617</v>
       </c>
       <c r="N2" t="n">
+        <v>474171.825723617</v>
+      </c>
+      <c r="O2" t="n">
+        <v>474171.8257236172</v>
+      </c>
+      <c r="P2" t="n">
         <v>474171.8257236169</v>
-      </c>
-      <c r="O2" t="n">
-        <v>474171.8257236171</v>
-      </c>
-      <c r="P2" t="n">
-        <v>474171.8257236171</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501614</v>
+        <v>66587.76789501563</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.5955499828</v>
+        <v>11527.59554998328</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210497</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>3.291160447619843e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,16 +26392,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877249</v>
+        <v>53045.85463877209</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622336</v>
+        <v>9392.301726622756</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
-        <v>4.505232968297386e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511645</v>
+        <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>154981.0317940155</v>
+        <v>154981.0317940158</v>
       </c>
       <c r="D4" t="n">
         <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>54561.8251096227</v>
+        <v>54561.82510962268</v>
       </c>
       <c r="F4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962266</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962272</v>
+        <v>54561.82510962264</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962272</v>
+        <v>54561.82510962273</v>
       </c>
       <c r="I4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962271</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
+        <v>54561.82510962276</v>
+      </c>
+      <c r="M4" t="n">
+        <v>54561.82510962272</v>
+      </c>
+      <c r="N4" t="n">
         <v>54561.82510962275</v>
       </c>
-      <c r="M4" t="n">
-        <v>54561.82510962269</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>54561.82510962276</v>
-      </c>
-      <c r="O4" t="n">
-        <v>54561.82510962277</v>
       </c>
       <c r="P4" t="n">
         <v>54561.82510962276</v>
@@ -26472,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800258</v>
+        <v>71956.21380800247</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87219.81945327081</v>
+        <v>87219.81945327084</v>
       </c>
       <c r="C6" t="n">
-        <v>189007.5744043335</v>
+        <v>189007.5744043337</v>
       </c>
       <c r="D6" t="n">
-        <v>248782.2735438381</v>
+        <v>248782.2735438375</v>
       </c>
       <c r="E6" t="n">
-        <v>159536.652787152</v>
+        <v>159513.4284477693</v>
       </c>
       <c r="F6" t="n">
-        <v>341891.7620082018</v>
+        <v>341868.5376688192</v>
       </c>
       <c r="G6" t="n">
-        <v>341891.7620082017</v>
+        <v>341868.5376688192</v>
       </c>
       <c r="H6" t="n">
-        <v>341891.7620082018</v>
+        <v>341868.5376688191</v>
       </c>
       <c r="I6" t="n">
-        <v>341891.7620082018</v>
+        <v>341868.5376688191</v>
       </c>
       <c r="J6" t="n">
-        <v>230877.2966632115</v>
+        <v>230854.072323829</v>
       </c>
       <c r="K6" t="n">
-        <v>288845.9073694292</v>
+        <v>288822.683030047</v>
       </c>
       <c r="L6" t="n">
-        <v>332499.4602815795</v>
+        <v>332476.2359421964</v>
       </c>
       <c r="M6" t="n">
-        <v>189691.5910702142</v>
+        <v>189668.3667308315</v>
       </c>
       <c r="N6" t="n">
-        <v>341891.7620082016</v>
+        <v>341868.5376688191</v>
       </c>
       <c r="O6" t="n">
-        <v>341891.7620082018</v>
+        <v>341868.5376688192</v>
       </c>
       <c r="P6" t="n">
-        <v>341891.7620082018</v>
+        <v>341868.537668819</v>
       </c>
     </row>
   </sheetData>
@@ -26792,22 +26792,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684619</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26937,13 +26937,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483591</v>
+        <v>206.1089748483576</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939348</v>
+        <v>37.11037423939504</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483591</v>
+        <v>206.1089748483576</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939348</v>
+        <v>37.11037423939504</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483591</v>
+        <v>206.1089748483576</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939348</v>
+        <v>37.11037423939504</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>53.17333469697797</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>395.2382345799869</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27554,10 +27554,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>20.30796380925148</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>190.0894709310462</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>113.8601903713172</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>111.6566649134111</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>119.6747557865337</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>140.8783988682216</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215.0718835998008</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27912,13 +27912,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>367.2261030860414</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>90.92021546249543</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.3357961106037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-9.697685318346743e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28280,7 +28280,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-3.735895724742149e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28523,7 +28523,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-4.651176503178812e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.861621967691462e-12</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>-8.287078162179479e-13</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29462,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-3.758651504979534e-12</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29994,19 +29994,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-1.294122510303012e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30231,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-4.820566934132988e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30525,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30641,7 +30641,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>236.2898988798406</v>
@@ -34783,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>223.0854642319581</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>52.91495433479234</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684619</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684635</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>72.80589558611109</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684619</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684619</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>577.1153547606267</v>
+        <v>630.4048323684619</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>630.4048323684635</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664742072</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35108,10 +35108,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191105</v>
+        <v>291.5292041581847</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>88.52591951401018</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>92.22506899525706</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>825.7100220597506</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645547</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>756.3484258820585</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828739</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35819,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512897</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,7 +36047,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36284,7 +36284,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36363,13 +36363,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,10 +36758,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080377</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>169.6543172077065</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>-2.647518703460994e-13</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908462</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37946,7 +37946,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38022,25 +38022,25 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157532</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>84.43304486678426</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
